--- a/New_Joinee_Access_required.xlsx
+++ b/New_Joinee_Access_required.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snayak\Documents\MyJabberFiles\rusrivastava@ad.harman.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RuSrivastava\Fresher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
     <t>Write email to Admin &amp; Facilities-Bangalore &lt;Admin&amp;Facilities-Bangalore@harman.com&gt;</t>
   </si>
   <si>
-    <t>4. repo init - Contact Ashireddy Vishwanath</t>
+    <t>4. repo init error - Contact Ashireddy Vishwanath</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
